--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1808081.454192498</v>
+        <v>1841390.183837902</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17298407.14104213</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484432</v>
+        <v>278692.0725916858</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6092725.298869387</v>
+        <v>6185939.704016156</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>213.6616218654232</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
@@ -671,13 +671,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>88.1781598840907</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -789,7 +789,7 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
-        <v>128.8768572327043</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U3" t="n">
         <v>174.5731815300314</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>13.8523599663048</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>27.05552573060256</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -874,10 +874,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.44211996154365</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>382.6589484408475</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1060,13 +1060,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>114.3486586083472</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>58.85919379403585</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1133,19 +1133,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>270.867600279237</v>
       </c>
       <c r="Y8" t="n">
-        <v>248.6692268570066</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1421,10 +1421,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>203.519503940137</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>129.7139627068458</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>88.01364999380303</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1819,19 +1819,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>195.1526410376675</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>106.8203062694893</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170498</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2245,7 +2245,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>47.61404849749811</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225731</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2333,7 +2333,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112081</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225773</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2722,13 +2722,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>35.34780583513569</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -3083,7 +3083,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561542</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225773</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>285.8262315320845</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.4878110526658</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.0080304781979</v>
+        <v>67.45240452679985</v>
       </c>
       <c r="U37" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>221.5443659008382</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.2363335358519</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>203.7520027599491</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>279.2269213789025</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.2363335358519</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
-        <v>36.19640651634162</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>143.5612867356429</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.2363335358519</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>210.0945331298034</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.6683834787607</v>
+        <v>1241.133553298582</v>
       </c>
       <c r="C2" t="n">
-        <v>516.086709216029</v>
+        <v>1207.031484522409</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>778.4498102596771</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>748.7154694583763</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
         <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="M2" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="N2" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="O2" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="P2" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4358,22 +4358,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W2" t="n">
-        <v>986.2753289634923</v>
+        <v>1476.301152404893</v>
       </c>
       <c r="X2" t="n">
-        <v>971.173269583207</v>
+        <v>1461.199093024608</v>
       </c>
       <c r="Y2" t="n">
-        <v>966.9275499232645</v>
+        <v>1456.953373364666</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>576.4192408244</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="C4" t="n">
-        <v>403.857529307625</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="D4" t="n">
-        <v>237.9795365091477</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4492,16 +4492,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1013.629614209975</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1013.629614209975</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>768.2378595433871</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>768.2378595433871</v>
+        <v>187.8381257054811</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1732.282752901012</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1345.758562556722</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>909.8487777311663</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>880.1144369298655</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>452.2470073390733</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233714</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233714</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>857.0776321906106</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="M5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="N5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2352.4652647208</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657694</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2437.967455657694</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>2178.74515297471</v>
       </c>
       <c r="V5" t="n">
-        <v>1477.116202953456</v>
+        <v>2178.74515297471</v>
       </c>
       <c r="W5" t="n">
-        <v>1072.260748364489</v>
+        <v>2177.930102426148</v>
       </c>
       <c r="X5" t="n">
-        <v>653.1182849437999</v>
+        <v>2162.828043045863</v>
       </c>
       <c r="Y5" t="n">
-        <v>244.8321612434534</v>
+        <v>1754.541919345516</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326467</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993474</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.6596472970912</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>973.0996549038641</v>
+        <v>593.0357356940413</v>
       </c>
       <c r="C7" t="n">
-        <v>800.5379433870891</v>
+        <v>420.4740241772662</v>
       </c>
       <c r="D7" t="n">
-        <v>634.6599505886118</v>
+        <v>254.5960313787889</v>
       </c>
       <c r="E7" t="n">
-        <v>464.9019468393491</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>743.4007229285738</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179229</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055681</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.647692308786</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1529.692184179216</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.729698975331</v>
+        <v>1257.665779765508</v>
       </c>
       <c r="X7" t="n">
-        <v>1392.337944308743</v>
+        <v>1012.27402509892</v>
       </c>
       <c r="Y7" t="n">
-        <v>1164.918273622851</v>
+        <v>784.8543544130284</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1786.45307593959</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1348.310603123013</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>912.4008182974577</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1613.531556264254</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1250.914606198081</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W8" t="n">
-        <v>846.059151609114</v>
+        <v>2086.56159868973</v>
       </c>
       <c r="X8" t="n">
-        <v>426.9166881884247</v>
+        <v>1812.957962044036</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>1808.712242384094</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.314042074141</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.171569257564</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.261784432008</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.487039590304</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6196099995113</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2217786227753</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>97.09162406599152</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>96.67483469313153</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>495.7232831864126</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1570.783249439272</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2727.831084649823</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>3853.56206808627</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>4833.741734656576</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4833.741734656576</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4833.741734656576</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4833.741734656576</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4750.089860840413</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4544.514604335224</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.514604335224</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.897654269051</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.042199680084</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.899736259395</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.613612559048</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.8465796844243</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.3901185210666</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.2998296676199</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.1794149945736</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7955766107352</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4104868769191</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.914596171941</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6362599849667</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.1504807641875</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.1708717700627</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6091602532877</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7311674548105</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>438.9731637055477</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>262.2661096673039</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.2545198578214</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.012974428957</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2228561969181</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.965526535476</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.093075893928</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.213629472383</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.780628725488</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.825120595919</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.800915841529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.409161174942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.98949048905</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.314042074141</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.171569257564</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.261784432008</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.487039590304</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6196099995113</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2217786227752</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>97.09162406599152</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9295221460494</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.339780357087</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.519446927393</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.829321760789</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.328107719384</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4833.741734656576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4750.089860840413</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4530.022633713452</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4270.800331030468</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.897654269052</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.042199680085</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.899736259395</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.613612559049</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.8465796844243</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.3901185210666</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.2998296676199</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.1794149945736</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7955766107352</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4104868769191</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.914596171941</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6362599849667</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.1504807641875</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.073046079688</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>914.5113345629132</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>748.633341764436</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>578.8753380151732</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>402.1682839769293</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>236.577009002757</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.2545198578214</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.012974428957</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2228561969181</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.965526535476</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.916623301303</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.6752545993</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.795808177755</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.36280743086</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.407299301291</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1524.283419465263</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1278.891664798675</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.891664798675</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.811823092179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.669350275602</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.759565450047</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.984820608342</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F17" t="n">
-        <v>790.1173910175498</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G17" t="n">
-        <v>388.7195596408137</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>99.58940508402996</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>99.17261571116997</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>534.4273031640879</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.777595122266</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.837561375125</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.837561375125</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.837561375125</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3424.017227945431</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4252.327102778827</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4798.825888737422</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4958.630785558498</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4874.978911742335</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4654.911684615374</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4547.012385353263</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4184.39543528709</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3779.539980698123</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.397517277434</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2952.111393577087</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>605.3443607024627</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.887899539105</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.7976106856583</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.677196012612</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>226.2933576287736</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.9082678949575</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>99.17261571116997</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>125.2362888716276</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.7946138378398</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1645.239599095639</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1762.412377189979</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.956939638362</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.778295968963</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1392.441748968932</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1193.324231030931</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1008.001476764125</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>853.1340410030051</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.6482617822259</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.6664531287822</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>636.1047416120072</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>470.2267488135298</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>300.4687450642671</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>123.7616910260233</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>99.17261571116997</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>99.17261571116997</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>99.17261571116997</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.7523008758598</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>460.5107554469954</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.7206372149565</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1338.204504395869</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1780.463307553514</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2200.132556779295</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.639450749637</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.83222561397</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.83222561397</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.590856911966</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.711410490421</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2032.278409743527</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1745.322901613957</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1473.296497200249</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1227.904742533661</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000.485071847769</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,16 +5750,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5777,25 +5777,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,10 +5826,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
         <v>1107.588885023173</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.756877347711</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651781</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835204</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009649</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167944</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771515</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.807784200415</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436394</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707795</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707795</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>605.8694973157523</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1680.929463568612</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2837.977298779163</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>3963.708282215609</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4943.887948785916</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785916</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785916</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538972</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722809</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595848</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912864</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846691</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257724</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837035</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136689</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620723</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987145</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>406.8858352452678</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722215</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883831</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>143.996492454567</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707795</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
         <v>1107.588885023173</v>
@@ -6108,10 +6108,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626147</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418354</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831956</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>267.8521152449518</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707795</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707795</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707795</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066048</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745659</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
         <v>2203.220781338905</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.754677688392</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716169</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731397</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238769</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>303.5569696238769</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>137.9656946497046</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6470,19 +6470,19 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6686,49 +6686,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
         <v>4550.100609912873</v>
@@ -6780,22 +6780,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2525.854933458241</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H35" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.798197351206</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M35" t="n">
-        <v>2582.520192247198</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N35" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2951.737714570289</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1090.030726836648</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>917.8858046927327</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>752.4246012671153</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>583.0833868907126</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>406.7931222253288</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>241.6186366240165</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.133251687251</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.466419851295</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2701.059791783004</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2542.235212453861</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2296.772555405176</v>
+        <v>2491.545339525313</v>
       </c>
       <c r="U37" t="n">
-        <v>2018.756344031141</v>
+        <v>2213.112338778418</v>
       </c>
       <c r="V37" t="n">
-        <v>1732.217625274432</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W37" t="n">
-        <v>1508.435437495807</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X37" t="n">
-        <v>1508.435437495807</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y37" t="n">
-        <v>1281.432556182775</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2751.674257000255</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3731.853923570562</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4560.163798403958</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5106.662584362552</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919249</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165148</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617394</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1969248477087</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1090.030726836648</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>917.8858046927329</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>752.4246012671156</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>583.0833868907127</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>406.7931222253289</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>241.6186366240166</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.1214321162808</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517562</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840572</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.79912142931</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851295</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2701.059791783003</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2542.23521245386</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2296.772555405175</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2018.75634403114</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1732.217625274431</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1526.407521476503</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1281.432556182775</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1281.432556182775</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2523.357152440201</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2085.631468996485</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1650.13847354379</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1216.780518074945</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>789.3298778570124</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>388.3488358531363</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>99.63547066921262</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>99.63547066921262</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>99.63547066921262</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>933.9857626273906</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2009.04572888025</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2009.04572888025</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2457.631141345278</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3437.810807915585</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4266.12068274898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4812.619468707575</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>4981.773533460631</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4898.538449017328</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.888011263227</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.082497953103</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4057.88233725979</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.834941927566</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3357.109267879736</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2949.239933552249</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>605.8072156605054</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>499.3507544971477</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>404.260465643701</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.1400509706547</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>226.7562125868163</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>141.3711228530001</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>99.63547066921262</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>125.6991438296702</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>450.2574687958826</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>450.2574687958826</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>450.2574687958826</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>450.2574687958826</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>450.2574687958826</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>450.2574687958826</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1645.702454053682</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1762.875232148021</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1699.419794596404</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1569.241150927006</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1392.904603926974</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1193.787085988974</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1008.464331722168</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>853.5968959610478</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.1111167402686</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1003.631183527159</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>1003.631183527159</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>838.1699801015418</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>668.828765725139</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>492.5385010597551</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>327.3640154584427</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>187.8786305216773</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>99.63547066921262</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.6236510982426</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7906009337186</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>880.4089779660195</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1340.301340411273</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1782.968638833257</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.046383323379</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.961772558061</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2719.563042686733</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2698.562010764965</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2539.737431435822</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2503.175404651638</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2225.159193277604</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1938.620474520894</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1667.010859480046</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1422.035894186318</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1195.033012873286</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2520.268927880592</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2082.543244436875</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1647.05024898418</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1213.692293515335</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>786.2416532974025</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>385.2606112935264</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>96.54724610960297</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>96.54724610960297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>96.54724610960297</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>930.8975380677809</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2005.95750432064</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2005.95750432064</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2303.219913364795</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3283.399579935101</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4111.709454768497</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4658.208240727092</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4827.362305480148</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4744.127221036845</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4524.476783282744</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4265.67126997262</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3903.471109279307</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3499.0324440632</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3354.021043320126</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.15170899264</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.7189911008958</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.262529937538</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.1722410840913</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.051826411045</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.6679880272066</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.2828982933905</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.54724610960297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.6109192700606</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.1692442362729</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>447.1692442362729</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>447.1692442362729</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>447.1692442362729</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>447.1692442362729</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>447.1692442362729</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.614229494072</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.787007588412</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.331570036795</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.152926367397</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1389.816379367365</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.698861429364</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.376107162558</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.5086714014382</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.0228921806589</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1084.444721259</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>912.2997991150847</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>746.8385956894674</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>577.4973813130646</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>401.2071166476808</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>236.0326310463685</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>96.54724610960297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.54724610960297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.5354265386329</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.7023763741086</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>877.3207534064098</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1337.213115851663</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1779.880414273648</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2199.958158763769</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2547.873547998452</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2716.474818127124</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2695.473786205356</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2536.649206876212</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2291.186549827527</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2291.186549827527</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>2004.647831070818</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1733.03821602997</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1488.063250736242</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1275.846550605127</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,22 +8058,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8140,19 +8140,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>42.55209558322787</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611246</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,13 +8231,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741828</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238407</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>403.0792409023042</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>37.79154236080012</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>161.4190876980565</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>508.6956131767403</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03656536949901579</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>583.0591140826364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10589,13 +10589,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>137.0929241373656</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>307.9556158071205</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>453.1165782475032</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>300.2650596405601</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>14.34705091555473</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>270.9771305717087</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>74.15349933190393</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>149.809773386664</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.592177662726</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>103.1553467313935</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627256</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308167807</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>175.9682474305294</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>47.34915298960181</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.5252156407903</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>65.14151613049088</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>121.1673571850431</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.4234729224759</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
-        <v>206.8116239618563</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>270.977130571708</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602943</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>14.63831937009802</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>505921.7844762145</v>
+        <v>518604.1068994898</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>505921.7844762145</v>
+        <v>520887.5869454153</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>519458.9080306304</v>
+        <v>541633.6251984435</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>519458.9080306303</v>
+        <v>541633.6251984435</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>529374.3273498955</v>
+        <v>541633.6251984435</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>541633.6251984435</v>
+        <v>541633.6251984434</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>541633.6251984434</v>
+        <v>541633.6251984435</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>541633.6251984434</v>
+        <v>541633.6251984435</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>541764.8059612521</v>
+        <v>541633.6251984437</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>541764.8059612521</v>
+        <v>541633.6251984435</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>531849.3866419869</v>
+        <v>541633.6251984435</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>519590.0887934389</v>
+        <v>541633.6251984435</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26314,25 @@
         <v>469128.9049041076</v>
       </c>
       <c r="C2" t="n">
-        <v>469128.9049041074</v>
+        <v>469128.9049041075</v>
       </c>
       <c r="D2" t="n">
-        <v>469128.9049041074</v>
+        <v>469128.9049041076</v>
       </c>
       <c r="E2" t="n">
-        <v>442126.8289758638</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="F2" t="n">
-        <v>442126.8289758638</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="G2" t="n">
-        <v>450566.1354038022</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="H2" t="n">
-        <v>461000.3861201832</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="I2" t="n">
-        <v>461000.3861201832</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="J2" t="n">
         <v>461000.3861201833</v>
@@ -26344,16 +26344,16 @@
         <v>461000.3861201833</v>
       </c>
       <c r="M2" t="n">
-        <v>461206.9678695365</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="N2" t="n">
-        <v>461206.9678695366</v>
+        <v>461000.3861201832</v>
       </c>
       <c r="O2" t="n">
-        <v>452767.6614415983</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="P2" t="n">
-        <v>442333.410725217</v>
+        <v>461000.3861201833</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.7678950164</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998255</v>
       </c>
       <c r="E3" t="n">
-        <v>234126.8263659351</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8557.553879113279</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10415.38475254656</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449908</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.8546387727</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622134</v>
       </c>
       <c r="M3" t="n">
-        <v>195343.3712995836</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171472.7657924761</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>78105.39984531417</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="F4" t="n">
-        <v>78105.39984531415</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="G4" t="n">
-        <v>79596.27386555428</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904309</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="M4" t="n">
+        <v>81439.57146904284</v>
+      </c>
+      <c r="N4" t="n">
+        <v>81439.57146904284</v>
+      </c>
+      <c r="O4" t="n">
         <v>81439.5714690428</v>
       </c>
-      <c r="M4" t="n">
-        <v>81780.38934389869</v>
-      </c>
-      <c r="N4" t="n">
-        <v>81780.38934389871</v>
-      </c>
-      <c r="O4" t="n">
-        <v>80289.5153236586</v>
-      </c>
       <c r="P4" t="n">
-        <v>78446.21772017003</v>
+        <v>81439.57146904283</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73472.87436677996</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73472.87436677996</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>75371.18794048917</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579237</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.9599574399</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>75757.64638373069</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73410.59571842736</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61551.84326530853</v>
+        <v>61551.84326530848</v>
       </c>
       <c r="C6" t="n">
-        <v>203743.1439250183</v>
+        <v>159112.1574086124</v>
       </c>
       <c r="D6" t="n">
-        <v>203743.1439250183</v>
+        <v>218125.6965328089</v>
       </c>
       <c r="E6" t="n">
-        <v>56421.72839783459</v>
+        <v>119464.2424849156</v>
       </c>
       <c r="F6" t="n">
-        <v>290548.5547637697</v>
+        <v>301819.3517059652</v>
       </c>
       <c r="G6" t="n">
-        <v>287041.1197186455</v>
+        <v>301819.3517059652</v>
       </c>
       <c r="H6" t="n">
-        <v>291427.1912928013</v>
+        <v>301819.3517059652</v>
       </c>
       <c r="I6" t="n">
-        <v>301842.5760453484</v>
+        <v>301819.3517059653</v>
       </c>
       <c r="J6" t="n">
-        <v>190828.1107003572</v>
+        <v>190804.8863609752</v>
       </c>
       <c r="K6" t="n">
-        <v>301842.576045348</v>
+        <v>248773.4970671927</v>
       </c>
       <c r="L6" t="n">
-        <v>301842.576045348</v>
+        <v>292427.0499793431</v>
       </c>
       <c r="M6" t="n">
-        <v>106427.2472686143</v>
+        <v>149619.1807679777</v>
       </c>
       <c r="N6" t="n">
-        <v>301770.618568198</v>
+        <v>301819.3517059652</v>
       </c>
       <c r="O6" t="n">
-        <v>296720.499734209</v>
+        <v>301819.3517059654</v>
       </c>
       <c r="P6" t="n">
-        <v>290476.5972866196</v>
+        <v>301819.3517059653</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,25 +26790,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1239.657696389625</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384743</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1245.443383365158</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1206.840576370037</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791314172</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="E4" t="n">
-        <v>784.1395761440397</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>31.22226272548033</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>38.60280699512086</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201067</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="M4" t="n">
-        <v>782.5447188499322</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="M4" t="n">
-        <v>784.1395761440397</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>31.22226272548033</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>38.60280699512086</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>208.3749529146355</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>7.254829457195569</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>312.6287401589863</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>176.0480725654924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>141.0048979811675</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>331.594454818515</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>51.10209964756342</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>53.71176510342292</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>210.4469465755355</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,19 +27853,19 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>144.0834385072454</v>
       </c>
       <c r="Y8" t="n">
-        <v>155.5340356063365</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4126214791313976</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4126214791313976</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791313976</v>
+        <v>-8.621297684860279e-13</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,22 +34778,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34860,19 +34860,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>42.55209558322787</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611246</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,13 +34951,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,16 +35027,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741828</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238407</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>403.0792409023042</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,7 +35647,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>37.79154236080012</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>161.4190876980565</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,7 +36048,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>508.6956131767403</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03656536949901579</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36838,22 +36838,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>583.0591140826364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37309,13 +37309,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>137.0929241373656</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>447.1386852747316</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.3043132612856</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>307.9556158071205</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821186</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.9464139752276</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871728</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.320954030426</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612856</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>453.1165782475032</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821206</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.9464139752283</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871727</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.5377398436899</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>300.2650596405601</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,10 +38111,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821206</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.846845487173</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.5377398436899</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747323</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.320954030426</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
